--- a/assets/results/CT_result.xlsx
+++ b/assets/results/CT_result.xlsx
@@ -7,14 +7,21 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hartford County" sheetId="1" r:id="rId1"/>
+    <sheet name="Litchfield County" sheetId="2" r:id="rId2"/>
+    <sheet name="New Haven County" sheetId="3" r:id="rId3"/>
+    <sheet name="New London County" sheetId="4" r:id="rId4"/>
+    <sheet name="Windham County" sheetId="5" r:id="rId5"/>
+    <sheet name="Fairfield County" sheetId="6" r:id="rId6"/>
+    <sheet name="Middlesex County" sheetId="7" r:id="rId7"/>
+    <sheet name="Tolland County" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="70">
   <si>
     <t>question</t>
   </si>
@@ -175,13 +182,55 @@
     <t>Ratio of Native Americans to whites with health insurance</t>
   </si>
   <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Hartford County</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Litchfield County</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>New Haven County</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>New London County</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Windham County</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Fairfield County</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Middlesex County</t>
+  </si>
+  <si>
     <t>013</t>
   </si>
   <si>
     <t>Tolland County</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -583,6 +632,4080 @@
         <v>4</v>
       </c>
       <c r="C4">
+        <v>892153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>536165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>123165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>49438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>163969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>478175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>68.09999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.055813953488372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.13953488372093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>196326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>343.501201923077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>17900.04706963447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>21016.23147932666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>99815.35152186314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001527077026572486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.69447695930037</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>52498</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>32991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>61495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>29195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>240369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.758620689655173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>92.40000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9434737923946557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>181143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>158675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>12023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>102070</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>70.90000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.077507598784195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.407294832826748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>39042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>97.09090909090909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>536.4319018404908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1162.64238410596</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>9439.988729748768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.002446937204442978</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.2201693610469592</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>42238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>38536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>50927</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>31297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>48299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.158730158730159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>91.09999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.029866117404737</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>855733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>529955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>116368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>34662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>159144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>459116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>64.09999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>66.59999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>67.09999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9609984399375976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.13572542901716</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>181979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>253.5042016806723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>16835.97089278255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>14141.38380888717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>100530.7960729313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001389157411584427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.6933041180640588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>41439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>49558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>31720</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>35893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>51820</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>30016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>215189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.515151515151515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>70.09999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.7204522096608427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>266868</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>199587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>15622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>10855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>29560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>146837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>64.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9923430321592649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.249617151607963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>55609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>355.1502590673575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2871.003779527559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>3403.615545524607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>18261.33384734001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.006281380194423673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.384617028095289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>40287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>25661</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>39262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>37317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>27724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>64656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>95.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>94.09999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.59999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9134912461380021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>116657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>95560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>14206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>62647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.6830015313935682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.836140888208269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>19303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1.389830508474576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>640.6086956521739</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>426.1677559912854</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>9135.801752795407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>5.43773790103317E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.3973355084284937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>36557</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>39389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>16994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>30118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>25528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>19405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.147727272727272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>96.09999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>91.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9937952430196483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>944306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>576391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>107367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>50842</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>189215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>510534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>65.09999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.047619047619048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.244239631336406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>221708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>230.0496668685645</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>16584.84270210101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>20728.58544757095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>139378.5912027511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001079913606911447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.7693107132074596</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>59051</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>35058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>26429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>63688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>28068</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>316013</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>67.90000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>4.347826086956522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>92.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8679833679833679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>162742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>135279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>10426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>91515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>65.59999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>71.90000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.8643292682926831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.178353658536586</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>40050</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>123.3471810089021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>1980.687730816578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1945.826345933563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>6650.318015665796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.002750952803965957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.2330859386193656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>49085</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>51449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>34689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>18138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>53952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>35858</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>51145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>10.66666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.026694045174538</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>150947</v>
       </c>
     </row>
